--- a/cardapioregular.xlsx
+++ b/cardapioregular.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoirailton/Documents/Estudos HTML5-CSS-Java Script/sistema_escolar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9A14B1-C6CC-B542-BC60-FA12FFBD43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693DC2C-5570-8B45-8BCE-EF727CAE79AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cardápio REGULAR 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="393">
   <si>
     <t>01/01/2025</t>
   </si>
@@ -1169,6 +1170,36 @@
   </si>
   <si>
     <t>Dia Letivo</t>
+  </si>
+  <si>
+    <t>1˚ semana</t>
+  </si>
+  <si>
+    <t>2˚ semana</t>
+  </si>
+  <si>
+    <t>3˚ semana</t>
+  </si>
+  <si>
+    <t>4˚ semana</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>sábado</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1280,6 +1311,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:D121"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5448,4 +5485,252 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372A4657-30A1-9F44-BF96-C61B732D69AE}">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A23:A28"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>